--- a/Data/appliance finder IT 이태리 filter_221215_v1.0.xlsx
+++ b/Data/appliance finder IT 이태리 filter_221215_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\LG\Appliance_Finder\IT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE7C5F1-AF90-43EE-A14D-79CD12B15556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD52E56A-D335-4A23-8276-E05A15175B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E901B218-3A93-446A-89FA-DB257102776A}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{E901B218-3A93-446A-89FA-DB257102776A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Side-by-Side</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,102 +362,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FV65346342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Door-in-Door™</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FTV0335793V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FT06515703</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LINEARCooling™</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FT06515704</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTV0335794V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DoorCooling+™</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FT06515705</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FV65346353</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FT06515706</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FV65346355</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Multi-Air Flow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FT06515707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FV65346357</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dispenser di acqua e ghiaccio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FT06515709</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTV0335799V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Wine rack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FT06515710</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTV0335800V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ripiano pieghevole</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FT06515711</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTV0335803V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Porte reversibili</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,6 +403,42 @@
   </si>
   <si>
     <t>energy grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV65346610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTV0335968V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTV0335957V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV65346616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTV0335927V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTV0335946V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTV0335943V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTV0335950V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTV0335951V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADD5027-696E-4065-9A84-270F6FA8EAD1}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -897,7 +865,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1143,7 +1111,7 @@
     </row>
     <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>56</v>
@@ -1207,7 +1175,7 @@
     </row>
     <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
@@ -1256,81 +1224,69 @@
       <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="2" t="s">
         <v>98</v>
       </c>
@@ -1338,29 +1294,25 @@
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A33:A41"/>
@@ -1375,6 +1327,7 @@
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C33:C41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/appliance finder IT 이태리 filter_221215_v1.0.xlsx
+++ b/Data/appliance finder IT 이태리 filter_221215_v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\LG\Appliance_Finder\IT\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minjoo\Ample\01-LG\03-Appliance_Finder\IT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD52E56A-D335-4A23-8276-E05A15175B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D9170F-974C-40E6-8C63-A3CAB2230285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{E901B218-3A93-446A-89FA-DB257102776A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E901B218-3A93-446A-89FA-DB257102776A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>Side-by-Side</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,10 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FT06515702</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Door-in-Door™</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,6 +435,34 @@
   </si>
   <si>
     <t>FTV0335951V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filtro Pure N Fresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT06515762</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTV0336055V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanica interna (senza allaccio idrico)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dispenser di acqua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTV0336031V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTV0336033V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,7 +537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,6 +557,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,13 +876,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADD5027-696E-4065-9A84-270F6FA8EAD1}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="49.125" customWidth="1"/>
@@ -863,15 +890,15 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="48" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="26.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -885,7 +912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -899,7 +926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -909,7 +936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -919,7 +946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -929,7 +956,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -939,7 +966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -953,7 +980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -963,7 +990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -973,7 +1000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -983,7 +1010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -993,7 +1020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -1003,7 +1030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1017,7 +1044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>39</v>
@@ -1027,7 +1054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="2" t="s">
         <v>40</v>
@@ -1037,7 +1064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>41</v>
@@ -1047,7 +1074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1061,7 +1088,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
@@ -1075,7 +1102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
@@ -1085,7 +1112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="2" t="s">
         <v>47</v>
@@ -1095,7 +1122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -1109,9 +1136,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>56</v>
@@ -1123,7 +1150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="2" t="s">
         <v>57</v>
@@ -1133,7 +1160,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
@@ -1143,7 +1170,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
@@ -1153,7 +1180,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="2" t="s">
         <v>60</v>
@@ -1163,7 +1190,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="2" t="s">
         <v>61</v>
@@ -1173,9 +1200,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
@@ -1187,7 +1214,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="2" t="s">
         <v>71</v>
@@ -1197,7 +1224,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="2" t="s">
         <v>72</v>
@@ -1207,7 +1234,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="2" t="s">
         <v>75</v>
@@ -1217,105 +1244,146 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>80</v>
+      <c r="C33" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="C34" s="7"/>
       <c r="D34" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="C35" s="7"/>
       <c r="D35" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="C37" s="7"/>
       <c r="D37" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="C40" s="7"/>
       <c r="D40" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="C41" s="7"/>
       <c r="D41" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6"/>
+      <c r="B42" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6"/>
+      <c r="B43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="6"/>
+      <c r="B44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="6"/>
+      <c r="B45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A33:A45"/>
+    <mergeCell ref="C33:C45"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A33:A41"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="C19:C21"/>
@@ -1327,9 +1395,9 @@
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C33:C41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/appliance finder IT 이태리 filter_221215_v1.0.xlsx
+++ b/Data/appliance finder IT 이태리 filter_221215_v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minjoo\Ample\01-LG\03-Appliance_Finder\IT\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\LG\Appliance_Finder\IT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D9170F-974C-40E6-8C63-A3CAB2230285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464645C6-795D-4652-9FB0-348AAD6898D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E901B218-3A93-446A-89FA-DB257102776A}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{E901B218-3A93-446A-89FA-DB257102776A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,10 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FV65346610</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FTV0335968V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,10 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FV65346616</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FTV0335927V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,11 +450,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FTV0336031V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FTV0336033V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTV0335958V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTV0335944V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FV65347014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,16 +550,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -878,11 +878,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADD5027-696E-4065-9A84-270F6FA8EAD1}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="49.125" customWidth="1"/>
@@ -890,15 +890,15 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="48" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" ht="26.25" customHeight="1">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -912,169 +912,169 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1088,41 +1088,41 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -1136,246 +1136,246 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A31" s="6"/>
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A32" s="6"/>
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>101</v>
+      <c r="C33" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A34" s="6"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A35" s="6"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A36" s="6"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A37" s="6"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A38" s="6"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A39" s="6"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A40" s="6"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A41" s="6"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="6"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="6"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
       <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="6"/>
-      <c r="B45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
